--- a/test-service/src/main/resources/rule3/rule3.xlsx
+++ b/test-service/src/main/resources/rule3/rule3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>merchantUserId</t>
   </si>
@@ -45,95 +45,132 @@
     <t>bizCode</t>
   </si>
   <si>
+    <t>SUCCESSED</t>
+  </si>
+  <si>
+    <t>PAY.CZ</t>
+  </si>
+  <si>
+    <t>PAY.TX</t>
+  </si>
+  <si>
     <t>M33333333</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>U33333333</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DEPOSIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>388888888888A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2016-01-18 08:15:15</t>
-  </si>
-  <si>
-    <t>SUCCESSED</t>
-  </si>
-  <si>
-    <t>PAY.CZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>388888888888B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2016-02-18 08:15:16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>388888888888C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2016-03-16 09:16:03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>388888888888D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2016-04-01 09:16:04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>388888888888E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2016-05-18 09:16:05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>388888888888F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2016-06-16 09:16:06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>388888888888G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2016-07-17 09:16:07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M33333333</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U33333333</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>WITHDRAW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>388888888888C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-08-01 08:15:15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>POC0003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>388888888888E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-08-16 08:15:15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>notTriggered</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>388888888888J</t>
-  </si>
-  <si>
-    <t>2016-08-16 08:15:15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-08-01 08:15:15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2016-08-16 08:15:16</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAY.TX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +199,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -197,6 +241,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,7 +549,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I11"/>
+      <selection activeCell="A9" sqref="A9:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -547,271 +594,271 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3">
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3">
         <v>158</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3">
         <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3">
         <v>99</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3">
         <v>98</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3">
         <v>185</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3">
         <v>85</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>9</v>
+      <c r="A9" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3">
         <v>888</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>96</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
       <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="3">
         <v>888</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
